--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_enabled_address_families_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_enabled_address_families_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:693603c7-8833-442b-8f06-a6e0f4d75ec3"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:84d55363-a5d0-4921-9f37-5d569295af92"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -539,10 +539,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:e747da13-7a35-4c72-bdc9-bce3256ae08a"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:6d842a4b-5134-49de-a195-9b1214d61bd9"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:243a9ff4-6b36-40be-bf49-2b50bac3c760" nc-ext:flow-id="83"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:97066db6-2ce5-48c5-82bf-1e33c8e68141" nc-ext:flow-id="247"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -550,7 +550,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6b081b99-ffcd-473e-9ebb-124902c944b1"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:08f004b2-fcad-40af-bb61-f70b20ab28b1"&gt;
   &lt;data&gt;
     &lt;network-instances&gt;
       &lt;network-instance&gt;
